--- a/biology/Mycologie/Amanite/Amanite.xlsx
+++ b/biology/Mycologie/Amanite/Amanite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita
-Le genre Amanita regroupe des Basidiomycètes[1] de la famille des Amanitacées[2].
-Les champignons de cette famille étaient traditionnellement classés dans l'ordre des Amanitales[3], classification confirmée par l'analyse phylogénétique dans le clade Plutéoïde, une des six nouvelles divisions des Agaricales[4],[5].
-Avec près de 600 espèces sur la planète, parmi lesquelles les plus toxiques côtoient les comestibles les plus réputés, le genre amanite est le plus important à savoir reconnaître parmi les champignons. En France et en Belgique, on a recensé une soixantaine d'espèces d'amanites, dont six[6] sont mortelles et trois sont responsables de 95 % des accidents mortels par ingestion volontaire de champignons[7].
-L’intoxication phalloïdienne est provoquée par des octapeptides bicycliques appelés amatoxines[8] (α, β et γ-amanitines) présents chez 35 espèces réparties dans 3 genres : Amanita, Galerina et Lepiota[9]. Plusieurs de ces toxines ont été isolées dans certaines amanites : la plus puissante est l'alpha-amanitine, qui résiste à la cuisson[10] et la phalloïdine qui est thermolabile et perd sa toxicité au dessus de 70 °C de cuisson[11].
+Le genre Amanita regroupe des Basidiomycètes de la famille des Amanitacées.
+Les champignons de cette famille étaient traditionnellement classés dans l'ordre des Amanitales, classification confirmée par l'analyse phylogénétique dans le clade Plutéoïde, une des six nouvelles divisions des Agaricales,.
+Avec près de 600 espèces sur la planète, parmi lesquelles les plus toxiques côtoient les comestibles les plus réputés, le genre amanite est le plus important à savoir reconnaître parmi les champignons. En France et en Belgique, on a recensé une soixantaine d'espèces d'amanites, dont six sont mortelles et trois sont responsables de 95 % des accidents mortels par ingestion volontaire de champignons.
+L’intoxication phalloïdienne est provoquée par des octapeptides bicycliques appelés amatoxines (α, β et γ-amanitines) présents chez 35 espèces réparties dans 3 genres : Amanita, Galerina et Lepiota. Plusieurs de ces toxines ont été isolées dans certaines amanites : la plus puissante est l'alpha-amanitine, qui résiste à la cuisson et la phalloïdine qui est thermolabile et perd sa toxicité au dessus de 70 °C de cuisson.
 </t>
         </is>
       </c>
@@ -515,10 +527,12 @@
           <t>Naissance d'une amanite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La jeune amanite ressemble à un œuf partiellement enfoncé dans le sol. Une membrane blanchâtre (le voile général) l'enveloppe entièrement. A l'abri de cette membrane, le primordium est déjà formé d'une base renflée (le bulbe) occupant les deux tiers du volume. La partie supérieure est occupée par le chapeau, tandis que le futur pied se forme entre les deux pôles, l'espace intermédiaire est occupé par les lames, protégées par le voile partiel, attaché au sommet du pied d'une part, et à la marge du chapeau d'autre part[12]. 
-Une fois éclos, le sporophore des amanites déchire le voile général par sa poussée verticale, due à l'allongement du pied. La "coquille" se brise à la partie supérieure du chapeau et ne subsiste à la base autour du bulbe que par la volve. C'est ensuite au tour du chapeau de s'épanouir en s'étalant. Le voile partiel se détache du bord du chapeau, puis se décolle du bord externe des lamelles. Il ne subsiste que par un anneau retombant, juponnant, attaché en haut du stipe[13].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La jeune amanite ressemble à un œuf partiellement enfoncé dans le sol. Une membrane blanchâtre (le voile général) l'enveloppe entièrement. A l'abri de cette membrane, le primordium est déjà formé d'une base renflée (le bulbe) occupant les deux tiers du volume. La partie supérieure est occupée par le chapeau, tandis que le futur pied se forme entre les deux pôles, l'espace intermédiaire est occupé par les lames, protégées par le voile partiel, attaché au sommet du pied d'une part, et à la marge du chapeau d'autre part. 
+Une fois éclos, le sporophore des amanites déchire le voile général par sa poussée verticale, due à l'allongement du pied. La "coquille" se brise à la partie supérieure du chapeau et ne subsiste à la base autour du bulbe que par la volve. C'est ensuite au tour du chapeau de s'épanouir en s'étalant. Le voile partiel se détache du bord du chapeau, puis se décolle du bord externe des lamelles. Il ne subsiste que par un anneau retombant, juponnant, attaché en haut du stipe.  
 L'amanite présente des lames libres, de couleur blanche, quelquefois jaune. La sporée est blanche.
 Le stipe (pied) est plus ou moins bulbeux souvent chaussé d'une volve plus ou moins visible, membraneuse ou floconneuse. 
 Un anneau, généralement en forme de collerette ou en « jupe », est présent chez les spécimens jeunes, mais parfois de façon fugace.
@@ -552,7 +566,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre comprend également de nombreux champignons comestibles, mais les mycologues déconseillent aux amateurs de champignons de les consommer, le risque de confusion pouvant engendrer des conséquences tragiques. Néanmoins, dans certaines cultures, des espèces locales sont comestibles et à l'origine de marchés saisonniers. Comme exemple de ce type d'amanites, on peut citer Amanita zambiana et d'autres espèces charnues dans le centre de l'Afrique, Amanita basii, des espèces similaires au Mexique, Amanita caesarea en Méditerranée, et Amanita chepangiana, amanite blanche du Sud-Est asiatique. D'autres espèces sont utilisées pour les sauces colorantes, comme l'Amanita jacksonii aux éclats rouge vif, que l'on récolte de l'Est du Canada à l'Est du Mexique et que l'on peut trouver sur les marchés.
 Pour beaucoup d'espèces, on ignore si elles sont comestibles, en particulier dans des pays traditionnellement mycophobes comme l'Australie et la Nouvelle-Zélande, où de nombreux champignons sont mal connus.
@@ -584,10 +600,12 @@
           <t>Taxinomie du genre Amanita</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom grec Amanites pourrait être dérivé de Amanos, une montagne de la Cilicie orientale entre la Phénicie et la Syrie, où auraient foisonné ces champignons[14]. Le physicien romain Galien utilisait le mot pour désigner les agarics champêtres par opposition au bolet[15].
-Le genre Amanita a tout d'abord été publié avec son sens actuel par Christian Hendrik Persoon en 1797[16]. En vertu du Code international de nomenclature botanique, le concept des amanites de Persoon, avec Amanita muscaria (L.) Pers. défini comme l'espèce type, a été officiellement conservé contre les anciennes Amanita Dill. ex Boehm. (1760) considérées comme un synonyme de Agaricus L.[17].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom grec Amanites pourrait être dérivé de Amanos, une montagne de la Cilicie orientale entre la Phénicie et la Syrie, où auraient foisonné ces champignons. Le physicien romain Galien utilisait le mot pour désigner les agarics champêtres par opposition au bolet.
+Le genre Amanita a tout d'abord été publié avec son sens actuel par Christian Hendrik Persoon en 1797. En vertu du Code international de nomenclature botanique, le concept des amanites de Persoon, avec Amanita muscaria (L.) Pers. défini comme l'espèce type, a été officiellement conservé contre les anciennes Amanita Dill. ex Boehm. (1760) considérées comme un synonyme de Agaricus L..
 </t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Phylogramme du genre Amanita</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le genre Amanita inclut deux sous-genres et sept sections confirmés par la morphologie et la phylogénétique moléculaire. Les espèces types de ces sous-genres et sections sont précisées ci-dessous[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le genre Amanita inclut deux sous-genres et sept sections confirmés par la morphologie et la phylogénétique moléculaire. Les espèces types de ces sous-genres et sections sont précisées ci-dessous.
 Amanita (genre)
 Amanita  (sous-genre)
 Amanita strictu senso (section)
@@ -663,13 +683,89 @@
           <t>Classification linnéenne du genre Amanita</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre englobe un peu plus de 550 espèces et variétés, la liste suivante est donc loin d'être exhaustive. Cette liste suit la classification des sous-genres et sections des grandes lignes du genre Amanita de Corner et Bas (1962[18]), de Bas (1969[19]), comme utilisée par Tulloss en 2007. L'utilisation des noms communs suit Tulloss (2007), Holden (2003), Arora (1986[20]) et Yang (2004[21]) et Lincoff (1981[22]).
-Sous-genre Amanita
-Le sous-genre Amanita a les spores qui réagissent à l'iode (Test de Melzer) et deviennent noires. Les spores sont inamyloïdes.[Passage contradictoire]
-Section Amanita sensu stricto
-Toutes les espèces ont un bulbe à la base du stipe
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre englobe un peu plus de 550 espèces et variétés, la liste suivante est donc loin d'être exhaustive. Cette liste suit la classification des sous-genres et sections des grandes lignes du genre Amanita de Corner et Bas (1962), de Bas (1969), comme utilisée par Tulloss en 2007. L'utilisation des noms communs suit Tulloss (2007), Holden (2003), Arora (1986) et Yang (2004) et Lincoff (1981).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Amanita</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-genre Amanita a les spores qui réagissent à l'iode (Test de Melzer) et deviennent noires. Les spores sont inamyloïdes.[Passage contradictoire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-genre Amanita</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Section Amanita sensu stricto</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Toutes les espèces ont un bulbe à la base du stipe
 Espèce-type du genre
  Amanita muscaria – Amanite tue-mouche (Cosmopolite)
 Liste des espèces de la section Amanita
@@ -687,9 +783,47 @@
      Amanita rubrovolvata – red volva amanita; Chine, Japon, Indonésie
      Amanita strobiliformis – Amanite verruqueuse; Europe
      Amanita virgineoides - Amanite virginoïde; Japon
- Amanita xanthocephala – Grisette vermillon; Australie
-Section Vaginae
-La plupart de ces espèces ont un stipe sans bulbe. La volve est friable, épaisse et membraneuse.
+ Amanita xanthocephala – Grisette vermillon; Australie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-genre Amanita</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Section Vaginae</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La plupart de ces espèces ont un stipe sans bulbe. La volve est friable, épaisse et membraneuse.
 Espèce-type de la section
 Amanita vaginata – Grisette ; Europe, Amérique du Nord
 Liste des espèces de la section Vaginae
@@ -706,9 +840,47 @@
      Amanita pekeoides – Amanite des Maoris[note 8] Nouvelle-Zélande
      Amanita simulans – Europe, peupliers, saules, hélianthèmes, sol calcaire.
      Amanita submembranacea – Europe
- Amanita velosa – Amanite du printemps[note 9], Côte ouest de l'Amérique du Nord
-Section Ceasareae
-Le bulbe à la base du stipe est inexistant et fort proche de la section Vaginae[23] un voile membraneux partiel.
+ Amanita velosa – Amanite du printemps[note 9], Côte ouest de l'Amérique du Nord</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-genre Amanita</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Section Ceasareae</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le bulbe à la base du stipe est inexistant et fort proche de la section Vaginae un voile membraneux partiel.
 Espèce type de la section
  Amanita caesarea – Amanite des Caesars, Caesar[note 10] Italie, Espagne, France (sud)
 Liste des espèces de la section Caesareae
@@ -717,10 +889,47 @@
  Amanita jacksonii – Caesar d'Amérique[note 12], Côte est de l'Amérique du Nord. Synonyme : A. basii.
      Amanita lanei (=Amanita calyptrata) – Coccora, Coccoli Côte ouest de l'Amérique du Nord
      Amanita spreta – Caesar à chapeau[note 13], Côte est de l'Amérique du Nord
- Amanita zambiana – Caesar de Zambie[note 14] Zambie
-Sous-genre Lepidella
-Section Lepidella
-Les espèces de ces sections incluent certaines dont les caractères sont jugés « plus primitifs » ou « moins dérivés » que dans le genre Amanita. Toutes les espèces sont blanches et pâles.
+ Amanita zambiana – Caesar de Zambie[note 14] Zambie</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-genre Lepidella</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Section Lepidella</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les espèces de ces sections incluent certaines dont les caractères sont jugés « plus primitifs » ou « moins dérivés » que dans le genre Amanita. Toutes les espèces sont blanches et pâles.
 Espèce type chez Lepidella
      Amanita vittadinii – Amanite de Vittadini[note 15] : Sud de la France, Espagne, Italie.
 Liste des espèces de la section Lepidella
@@ -737,9 +946,47 @@
      Amanita ravenelii – Amanite de Ravenel, Amanite pomme de pin[note 21], Amérique du Nord
  Amanita smithiana – Amanite de Smith[note 22] (Côte ouest de l'Amérique du Nord)
       Amanita solitaria ou Amanita strobiliformis – Amanite solitaire d'Europe[note 23], Europe
- Amanita thiersii – Amanite de Thiers[note 24] (Côte est de l'Amérique du Nord)
-Section Amidella
-Les espèces de cette section ont la marge du chapeau appendiculée, combiné à un voile universel robuste et multicouches.
+ Amanita thiersii – Amanite de Thiers[note 24] (Côte est de l'Amérique du Nord)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-genre Lepidella</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Section Amidella</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les espèces de cette section ont la marge du chapeau appendiculée, combiné à un voile universel robuste et multicouches.
 Espèce-type
      Amanita volvata – Amidella d'Amérique, Côte est de l'Amérique du Nord
 Listes des espèces de la section Amidella
@@ -747,9 +994,47 @@
      Amanita lepiotoides – Italie, Espagne, sud de la France
      Amanita ovoidea – Amanite ovoïde[note 25] – Italie, Espagne, sud de la France
      Amanita ponderosa – Italie, Espagne, sud de la France
- Amanita proxima – Italie, Espagne, sud de la France
-Section Phalloideae
-Cette section est définie en partie par une absence de marges friables du chapeau. Un grand nombre des espèces de cette section contiennent une ou plusieurs amatoxines et/ou de la phalloïdine.
+ Amanita proxima – Italie, Espagne, sud de la France</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-genre Lepidella</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Section Phalloideae</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cette section est définie en partie par une absence de marges friables du chapeau. Un grand nombre des espèces de cette section contiennent une ou plusieurs amatoxines et/ou de la phalloïdine.
 Espèce-type
  Amanita phalloides – Oronge verte, Amanite phalloïde[note 26] (Cosmopolite)
 Liste des espèces de la section phalloideae
@@ -764,9 +1049,47 @@
  Amanita subjunquillea – Fausse Oronge d'Asie de l'Est[note 34] Asie de l'Est et du Sud-est
  Amanita verna – Champignon des fous, Oronge cigüe blanche[note 35]: Italie, Espagne, sud de la France
  Amanita virosa – Ange de la mort[note 36], Europe
- Amanita virosiformis – Ange de la mort de Floride[note 37] Floride
-Section Validae
-Cette section est caractérisée par l'absence d'un voile membraneux universel. Beaucoup d'espèces de cette section qui ont été testées, contiennent un composé hémolytique qui est détruit par la chaleur. Ingérées crues, des troubles gastro-intestinaux apparaissent assez rapidement. Des espèces de cette section sont couramment consommées dans plusieurs parties du monde, mais jamais ingérées crues.
+ Amanita virosiformis – Ange de la mort de Floride[note 37] Floride</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous-genre Lepidella</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Section Validae</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cette section est caractérisée par l'absence d'un voile membraneux universel. Beaucoup d'espèces de cette section qui ont été testées, contiennent un composé hémolytique qui est détruit par la chaleur. Ingérées crues, des troubles gastro-intestinaux apparaissent assez rapidement. Des espèces de cette section sont couramment consommées dans plusieurs parties du monde, mais jamais ingérées crues.
 Liste des espèces de la section Validae
 Espèce-type
      Amanita excelsa var. spissa(=Amanita spissa) – Fausse Golmotte[note 38] - Europe
@@ -783,116 +1106,377 @@
      Amanita nothofagi - Amanite du hêtre méditerranéen[note 47] Nouvelle-Zélande
  Amanita novinupta – Amanite[note 48] - Côte ouest de l'Amérique du Nord
      Amanita porphyria – Amanite porphyre[note 49] Europe
- Amanita rubescens – Golmotte[note 50] Europe, Côte est de l'Amérique du Nord
-Autres confusions possibles
-On ne les confondra pas avec les genres Limacella qui n'ont pas de volve, un anneau présent, et un chapeau visqueux ni avec les Volvaires où la volve est présente, sans d'anneau, et les lames et spores roses.[précision nécessaire]
+ Amanita rubescens – Golmotte[note 50] Europe, Côte est de l'Amérique du Nord</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification linnéenne du genre Amanita</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres confusions possibles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne les confondra pas avec les genres Limacella qui n'ont pas de volve, un anneau présent, et un chapeau visqueux ni avec les Volvaires où la volve est présente, sans d'anneau, et les lames et spores roses.[précision nécessaire]
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Amanite</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amanite</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toxicité
-Plusieurs espèces de la section Phalloideae sont remarquables par leur toxicité, elles contiennent des toxines connues comme les amatoxines qui peuvent entraîner une insuffisance hépatique grave et la mort. Il s'agit notamment de l'Amanite phalloïde, l'Oronge verte et des espèces connues sous le nom de l'Ange de la mort Amanita virosa, Amanita bisporigera et Amanita ocreata et l'Oronge cigüe blanche, Amanita verna qui, au printemps, ressemble à s'y méprendre à un agaric des prés, Agaricus campestris[24].
-En 2006, il a été prouvé qu'une série d'espèces du sous-genre Lepidella pouvaient provoquer une insuffisance rénale aiguë, particulièrement avec Amanita smithiana du Nord-Ouest d'Amérique du Nord, Amanita pseudoporphyria au Japon, et Amanita Proxima du sud de l'Europe[25].
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de la section Phalloideae sont remarquables par leur toxicité, elles contiennent des toxines connues comme les amatoxines qui peuvent entraîner une insuffisance hépatique grave et la mort. Il s'agit notamment de l'Amanite phalloïde, l'Oronge verte et des espèces connues sous le nom de l'Ange de la mort Amanita virosa, Amanita bisporigera et Amanita ocreata et l'Oronge cigüe blanche, Amanita verna qui, au printemps, ressemble à s'y méprendre à un agaric des prés, Agaricus campestris.
+En 2006, il a été prouvé qu'une série d'espèces du sous-genre Lepidella pouvaient provoquer une insuffisance rénale aiguë, particulièrement avec Amanita smithiana du Nord-Ouest d'Amérique du Nord, Amanita pseudoporphyria au Japon, et Amanita Proxima du sud de l'Europe.
 			Amanite phalloïde (Amanita phalloides) Hautement toxique
 			Amanite vireuse (Amanita virosa) Hautement toxique
 			Amanita bisporigera Hautement toxique
 			Amanita ocreata Hautement toxique
 			Amanite printanière (Amanita verna) Hautement toxique
-Les Amatoxines
-C'est à l'époque de Boudier que leur étude a commencé : à cette époque déjà, quelques mycologues entretiennent la tradition de toxicovigilance en publiant des ouvrages dédiés aux empoisonnements et aux principaux comestibles : Cordier (1826 et 1836), Roques (1832, 1841 et 1876), Vittadini (1835), Schmid (1836), Krombholz (1831-1846), Badham (1847 et 1864). Letellier qui, suivant l'exemple de Paulet, cherche à déterminer la toxine en cause (qu'il croit être unique), propose de la nommer Amanitine[26]. Il publie un Avis au peuple (1840) qui ne sera pas poursuivi au delà de la 1ere livraison. C'est Boudier (1866) qui constate que les empoisonnements sont dus à plusieurs toxines, et nomme Bulbosine la plus dangereuse. Schmiedelberg et Koppe (1870) isolent la Muscarine.
-Isolées en 1941[27], les amatoxines comportent au moins huit composés possédant une structure similaire, basée sur huit acides aminés formant une structure en anneau.
-Les α-amanitine et β-amanitine
-Parmi elles, l’α-amanitine qui est le composé toxique principal, avec la β-amanitine, est responsable des effets toxiques[28],[29]. Elles agissent principalement sur l’ARN polymérase qu'elles inhibent, empêchant la synthèse d’ARN messager dans les cellules. L'inhibition de synthèse des ARNm bloque celle de l'ensemble des protéines, et par conséquent du métabolisme cellulaire. Cela entraîne rapidement l'arrêt des fonctions de base des cellules[30] et des fonctions de l'organe qu'elles composent. Parmi ces organes, le foie, qui est un des premiers organes rencontrés après absorption de la toxine par le système digestif, est rapidement un tissu cible de l'amanitine, ce d'autant qu'il est au centre des processus de détoxification des organismes. D’autres organes comme les reins sont également touchés[31].
-Les phallotoxines
-Les phallotoxines, constituées d'au moins sept composés distincts, possèdent également une structure moléculaire en anneau composé de sept acides aminés.
-La phalloïdine
-Isolée en 1937, la phalloïdine est le principal membre de ce groupe. Bien que les phallotoxines soient extrêmement toxiques pour les cellules du foie et du rein, où elles perturbent la dynamique du cytosquelette d'actine en empêchant la dépolymérisation des filaments[32], elles n'ont qu’un impact léger sur la toxicité générale de l’amanite phalloïde. Elles ne sont, en effet, pas absorbées au niveau intestinal. Par ailleurs, la phalloïdine est retrouvée dans une autre espèce, l’amanite rougissante, Amanita rubescens, qui est parfaitement comestible si elle est bien cuite.
-Symptômes
-Initialement, les symptômes sont de nature gastro-intestinale, incluant douleurs abdominales, diarrhées et vomissements, qui conduisent à une déshydratation ou, dans des cas graves, à une hypotension, une tachycardie, une hypoglycémie et à divers désordres acido-basiques[33]
-,[34]. Ces premiers symptômes disparaissent deux à trois jours après l’ingestion, avant une sérieuse détérioration impliquant le foie : ictère, diarrhées, délire, épilepsie et coma dus à une insuffisance hépatique aiguë et à une encéphalopathie hépatique (accumulation dans le sang de substances normalement dégradées dans le foie)[35]. Insuffisance rénale, due à une hépatite grave[36] ou directement à des dommages rénaux, et coagulopathie peuvent apparaître à cette étape. Plusieurs complications présentent un danger réel pour le pronostic vital : pression intracrânienne accrue, hémorragie intracrânienne, septicémie, pancréatite, insuffisance rénale aiguë et arrêt cardiaque. Le décès survient généralement six à seize jours après l’empoisonnement[37].
-Traitement
-La consommation des amanites possédant des amatoxines est une urgence médicale nécessitant une hospitalisation. Il y a quatre principales catégories de traitements pour l’empoisonnement : les premiers soins, les mesures d’accompagnement, les traitements spécifiques et la greffe du foie[38].
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Amanite</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amanite</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Les Amatoxines</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est à l'époque de Boudier que leur étude a commencé : à cette époque déjà, quelques mycologues entretiennent la tradition de toxicovigilance en publiant des ouvrages dédiés aux empoisonnements et aux principaux comestibles : Cordier (1826 et 1836), Roques (1832, 1841 et 1876), Vittadini (1835), Schmid (1836), Krombholz (1831-1846), Badham (1847 et 1864). Letellier qui, suivant l'exemple de Paulet, cherche à déterminer la toxine en cause (qu'il croit être unique), propose de la nommer Amanitine. Il publie un Avis au peuple (1840) qui ne sera pas poursuivi au delà de la 1ere livraison. C'est Boudier (1866) qui constate que les empoisonnements sont dus à plusieurs toxines, et nomme Bulbosine la plus dangereuse. Schmiedelberg et Koppe (1870) isolent la Muscarine.
+Isolées en 1941, les amatoxines comportent au moins huit composés possédant une structure similaire, basée sur huit acides aminés formant une structure en anneau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Les Amatoxines</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Les α-amanitine et β-amanitine</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi elles, l’α-amanitine qui est le composé toxique principal, avec la β-amanitine, est responsable des effets toxiques,. Elles agissent principalement sur l’ARN polymérase qu'elles inhibent, empêchant la synthèse d’ARN messager dans les cellules. L'inhibition de synthèse des ARNm bloque celle de l'ensemble des protéines, et par conséquent du métabolisme cellulaire. Cela entraîne rapidement l'arrêt des fonctions de base des cellules et des fonctions de l'organe qu'elles composent. Parmi ces organes, le foie, qui est un des premiers organes rencontrés après absorption de la toxine par le système digestif, est rapidement un tissu cible de l'amanitine, ce d'autant qu'il est au centre des processus de détoxification des organismes. D’autres organes comme les reins sont également touchés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Les phallotoxines</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les phallotoxines, constituées d'au moins sept composés distincts, possèdent également une structure moléculaire en anneau composé de sept acides aminés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Les phallotoxines</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>La phalloïdine</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isolée en 1937, la phalloïdine est le principal membre de ce groupe. Bien que les phallotoxines soient extrêmement toxiques pour les cellules du foie et du rein, où elles perturbent la dynamique du cytosquelette d'actine en empêchant la dépolymérisation des filaments, elles n'ont qu’un impact léger sur la toxicité générale de l’amanite phalloïde. Elles ne sont, en effet, pas absorbées au niveau intestinal. Par ailleurs, la phalloïdine est retrouvée dans une autre espèce, l’amanite rougissante, Amanita rubescens, qui est parfaitement comestible si elle est bien cuite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement, les symptômes sont de nature gastro-intestinale, incluant douleurs abdominales, diarrhées et vomissements, qui conduisent à une déshydratation ou, dans des cas graves, à une hypotension, une tachycardie, une hypoglycémie et à divers désordres acido-basiques
+,. Ces premiers symptômes disparaissent deux à trois jours après l’ingestion, avant une sérieuse détérioration impliquant le foie : ictère, diarrhées, délire, épilepsie et coma dus à une insuffisance hépatique aiguë et à une encéphalopathie hépatique (accumulation dans le sang de substances normalement dégradées dans le foie). Insuffisance rénale, due à une hépatite grave ou directement à des dommages rénaux, et coagulopathie peuvent apparaître à cette étape. Plusieurs complications présentent un danger réel pour le pronostic vital : pression intracrânienne accrue, hémorragie intracrânienne, septicémie, pancréatite, insuffisance rénale aiguë et arrêt cardiaque. Le décès survient généralement six à seize jours après l’empoisonnement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consommation des amanites possédant des amatoxines est une urgence médicale nécessitant une hospitalisation. Il y a quatre principales catégories de traitements pour l’empoisonnement : les premiers soins, les mesures d’accompagnement, les traitements spécifiques et la greffe du foie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Amanite</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amanite</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Principales espèces de France et Belgique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Amanite des Césars
 France, sud uniquement.
@@ -921,31 +1505,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Amanite</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amanite</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Amanite</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Précautions à prendre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant donné que trois espèces d'amanites sont mortelles et deux autres fortement toxiques, il convient d'être très prudent dans la récolte de ces champignons, et plus généralement de tous les champignons à lamelles blanches portant un anneau. Seuls des mycologues avertis peuvent consommer sans crainte Amanita rubescens et Amanita vaginata, à condition toutefois de bien les faire cuire, car ces deux champignons sont toxiques si on les mange crus. Il n'y a guère que l'oronge qui ne présente en principe aucun problème, une fois qu'on a vérifié que les exemplaires cueillis ont un pied et des lamelles jaunes (risque de confusion avec l'amanite tue-mouches). L'oronge est la seule amanite pouvant être consommée crue sans risque.
 Voir la liste des champignons toxiques.
